--- a/Data/SeenRx/SeenRx_CMT.xlsx
+++ b/Data/SeenRx/SeenRx_CMT.xlsx
@@ -14,135 +14,159 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>FFTR</t>
   </si>
   <si>
-    <t>LIGAZID Seen Rx</t>
-  </si>
-  <si>
-    <t>EMAZID Seen Rx</t>
-  </si>
-  <si>
-    <t>LIPICON Seen Rx</t>
-  </si>
-  <si>
-    <t>AGLIP Seen Rx</t>
-  </si>
-  <si>
-    <t>CIFIBET Seen Rx</t>
-  </si>
-  <si>
-    <t>AMLEVO Seen Rx</t>
-  </si>
-  <si>
-    <t>CARDOBIS Seen Rx</t>
-  </si>
-  <si>
-    <t>RIVAROX Seen Rx</t>
-  </si>
-  <si>
-    <t>Noclog Seen Rx</t>
+    <t>LIGAZID</t>
+  </si>
+  <si>
+    <t>EMAZID</t>
+  </si>
+  <si>
+    <t>LIPICON</t>
+  </si>
+  <si>
+    <t>AGLIP</t>
+  </si>
+  <si>
+    <t>CIFIBET</t>
+  </si>
+  <si>
+    <t>AMLEVO</t>
+  </si>
+  <si>
+    <t>CARDOBIS</t>
+  </si>
+  <si>
+    <t>RIVAROX</t>
+  </si>
+  <si>
+    <t>NOCLOG</t>
+  </si>
+  <si>
+    <t>CMT</t>
   </si>
   <si>
     <t>CMT10</t>
   </si>
   <si>
+    <t>CMT11</t>
+  </si>
+  <si>
+    <t>CMT12</t>
+  </si>
+  <si>
+    <t>CMT13</t>
+  </si>
+  <si>
+    <t>CMT14</t>
+  </si>
+  <si>
+    <t>CMT15</t>
+  </si>
+  <si>
+    <t>CMT16</t>
+  </si>
+  <si>
+    <t>CMT20</t>
+  </si>
+  <si>
+    <t>CMT21</t>
+  </si>
+  <si>
+    <t>CMT22</t>
+  </si>
+  <si>
+    <t>CMT23</t>
+  </si>
+  <si>
+    <t>CMT24</t>
+  </si>
+  <si>
+    <t>CMT25</t>
+  </si>
+  <si>
+    <t>CMT26</t>
+  </si>
+  <si>
+    <t>CMT30</t>
+  </si>
+  <si>
+    <t>CMT31</t>
+  </si>
+  <si>
+    <t>CMT32</t>
+  </si>
+  <si>
+    <t>CMT33</t>
+  </si>
+  <si>
+    <t>CMT34</t>
+  </si>
+  <si>
+    <t>CMT35</t>
+  </si>
+  <si>
+    <t>CMT36</t>
+  </si>
+  <si>
+    <t>CMT40</t>
+  </si>
+  <si>
+    <t>CMT41</t>
+  </si>
+  <si>
+    <t>CMT42</t>
+  </si>
+  <si>
+    <t>CMT43</t>
+  </si>
+  <si>
+    <t>CMT44</t>
+  </si>
+  <si>
+    <t>CMT45</t>
+  </si>
+  <si>
+    <t>CMT46</t>
+  </si>
+  <si>
     <t>CMT50</t>
   </si>
   <si>
-    <t>CMT30</t>
-  </si>
-  <si>
-    <t>CMT40</t>
+    <t>CMT51</t>
+  </si>
+  <si>
+    <t>CMT52</t>
+  </si>
+  <si>
+    <t>CMT53</t>
+  </si>
+  <si>
+    <t>CMT54</t>
+  </si>
+  <si>
+    <t>CMT55</t>
   </si>
   <si>
     <t>CMT60</t>
   </si>
   <si>
-    <t>CMT20</t>
-  </si>
-  <si>
     <t>CMT61</t>
   </si>
   <si>
-    <t>CMT45</t>
-  </si>
-  <si>
-    <t>CMT13</t>
+    <t>CMT62</t>
+  </si>
+  <si>
+    <t>CMT63</t>
+  </si>
+  <si>
+    <t>CMT64</t>
   </si>
   <si>
     <t>CMT65</t>
-  </si>
-  <si>
-    <t>CMT32</t>
-  </si>
-  <si>
-    <t>CMT15</t>
-  </si>
-  <si>
-    <t>CMT53</t>
-  </si>
-  <si>
-    <t>CMT44</t>
-  </si>
-  <si>
-    <t>CMT31</t>
-  </si>
-  <si>
-    <t>CMT43</t>
-  </si>
-  <si>
-    <t>CMT41</t>
-  </si>
-  <si>
-    <t>CMT16</t>
-  </si>
-  <si>
-    <t>CMT63</t>
-  </si>
-  <si>
-    <t>CMT51</t>
-  </si>
-  <si>
-    <t>CMT33</t>
-  </si>
-  <si>
-    <t>CMT64</t>
-  </si>
-  <si>
-    <t>CMT54</t>
-  </si>
-  <si>
-    <t>CMT52</t>
-  </si>
-  <si>
-    <t>CMT26</t>
-  </si>
-  <si>
-    <t>CMT21</t>
-  </si>
-  <si>
-    <t>CMT46</t>
-  </si>
-  <si>
-    <t>CMT12</t>
-  </si>
-  <si>
-    <t>CMT55</t>
-  </si>
-  <si>
-    <t>CMT11</t>
-  </si>
-  <si>
-    <t>CMT22</t>
-  </si>
-  <si>
-    <t>CMT42</t>
-  </si>
-  <si>
-    <t>CMT35</t>
   </si>
 </sst>
 </file>
@@ -500,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,31 +567,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="H2">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -575,31 +599,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>7</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -607,31 +631,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>5</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -639,31 +663,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -671,31 +695,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -703,13 +727,13 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -718,16 +742,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -738,22 +762,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -767,13 +791,13 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -782,10 +806,10 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -799,13 +823,13 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -817,13 +841,13 @@
         <v>3</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -831,13 +855,13 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -863,13 +887,13 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -881,7 +905,7 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -901,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -913,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -927,10 +951,10 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -939,13 +963,13 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -959,13 +983,13 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -991,13 +1015,13 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1006,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1015,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1023,10 +1047,10 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1038,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1055,31 +1079,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1087,13 +1111,13 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1102,10 +1126,10 @@
         <v>0</v>
       </c>
       <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
         <v>6</v>
-      </c>
-      <c r="H19">
-        <v>3</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1119,10 +1143,10 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1134,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1151,31 +1175,31 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1195,10 +1219,10 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1215,13 +1239,13 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1230,16 +1254,16 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1247,13 +1271,13 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1262,16 +1286,16 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1285,19 +1309,19 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1314,10 +1338,10 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1329,13 +1353,13 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1343,22 +1367,22 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1375,7 +1399,7 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1399,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1407,16 +1431,16 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1425,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1439,7 +1463,7 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1451,19 +1475,19 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1471,31 +1495,31 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D31">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1503,22 +1527,22 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -1527,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1535,10 +1559,10 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1550,16 +1574,16 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1570,28 +1594,284 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>17</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>8</v>
+      </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <v>9</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>6</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Data/SeenRx/SeenRx_CMT.xlsx
+++ b/Data/SeenRx/SeenRx_CMT.xlsx
@@ -567,31 +567,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>4</v>
-      </c>
-      <c r="F2">
-        <v>14</v>
-      </c>
-      <c r="G2">
-        <v>27</v>
-      </c>
-      <c r="H2">
-        <v>31</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -599,31 +599,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>4</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>7</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -631,13 +631,13 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -646,16 +646,16 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -663,31 +663,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>4</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -695,7 +695,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -806,10 +806,10 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -823,25 +823,25 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>2</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -855,13 +855,13 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1030,10 +1030,10 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1079,10 +1079,10 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1111,10 +1111,10 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1126,10 +1126,10 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1207,7 +1207,7 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1271,13 +1271,13 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1303,10 +1303,10 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1335,13 +1335,13 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1399,7 +1399,7 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1463,13 +1463,13 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1495,31 +1495,31 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1527,19 +1527,19 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1559,10 +1559,10 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1603,13 +1603,13 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -1623,10 +1623,10 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1641,13 +1641,13 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1687,31 +1687,31 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1719,25 +1719,25 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -1751,16 +1751,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1769,13 +1769,13 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1783,7 +1783,7 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1815,7 +1815,7 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1862,16 +1862,16 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Data/SeenRx/SeenRx_CMT.xlsx
+++ b/Data/SeenRx/SeenRx_CMT.xlsx
@@ -567,31 +567,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -599,13 +599,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -614,16 +614,16 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -663,13 +663,13 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -806,10 +806,10 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -823,10 +823,10 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -835,19 +835,19 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -855,13 +855,13 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -951,10 +951,10 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -963,13 +963,13 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -983,13 +983,13 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1001,13 +1001,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1033,13 +1033,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1047,13 +1047,13 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1079,13 +1079,13 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1207,7 +1207,7 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1271,31 +1271,31 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1303,22 +1303,22 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1335,13 +1335,13 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1431,7 +1431,7 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1446,13 +1446,13 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1495,13 +1495,13 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1510,16 +1510,16 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1527,13 +1527,13 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1542,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1559,13 +1559,13 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1574,16 +1574,16 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -1623,10 +1623,10 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1638,10 +1638,10 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -1687,31 +1687,31 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1719,31 +1719,31 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1751,22 +1751,22 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1815,22 +1815,22 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -1847,13 +1847,13 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42">
         <v>0</v>
